--- a/239289/Business data processing/Finance_Eric_Barreto.xlsx
+++ b/239289/Business data processing/Finance_Eric_Barreto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\239289\People\239289\Business data processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A934D68C-0837-4AAF-A1CE-635F8CFA2DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D06A10-8001-4126-A1F4-CC28FFA9DC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="623" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="623" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -218,7 +218,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -401,453 +401,273 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="165">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  <dxfs count="161">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -890,22 +710,196 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -991,12 +985,6 @@
           <color theme="0"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1218,11 +1206,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0900E7CE-9C64-4A34-BE85-8C8E745F85A4}" name="Dictionary" displayName="Dictionary" ref="A1:B21" totalsRowShown="0" headerRowDxfId="164" headerRowBorderDxfId="163" tableBorderDxfId="162" totalsRowBorderDxfId="161">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0900E7CE-9C64-4A34-BE85-8C8E745F85A4}" name="Dictionary" displayName="Dictionary" ref="A1:B21" totalsRowShown="0" headerRowDxfId="160" headerRowBorderDxfId="159" tableBorderDxfId="158" totalsRowBorderDxfId="157">
   <autoFilter ref="A1:B21" xr:uid="{0900E7CE-9C64-4A34-BE85-8C8E745F85A4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0B00D1D4-E297-445A-A772-4D9ED0FA8B2C}" name="Category" dataDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{C10D891E-977F-4FF5-98B1-BCF1CFF6E865}" name="Type" dataDxfId="159"/>
+    <tableColumn id="1" xr3:uid="{0B00D1D4-E297-445A-A772-4D9ED0FA8B2C}" name="Category" dataDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{C10D891E-977F-4FF5-98B1-BCF1CFF6E865}" name="Type" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1234,13 +1222,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AC937C89-A90E-4A31-922B-C487E9952921}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{8585C6FF-2EF2-4CDB-9CA4-6FBE39E8B7D4}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{FFBECBF4-2467-429F-BADC-5B9B74ED8E2A}" name="Opening balance" totalsRowFunction="sum" dataDxfId="158">
+    <tableColumn id="3" xr3:uid="{FFBECBF4-2467-429F-BADC-5B9B74ED8E2A}" name="Opening balance" totalsRowFunction="sum" dataDxfId="53">
       <calculatedColumnFormula>March_Balance[[#This Row],[Closing Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D441DBBA-1C6D-41F6-8824-424FA624F0FF}" name="Operations" totalsRowFunction="sum" dataDxfId="149">
+    <tableColumn id="4" xr3:uid="{D441DBBA-1C6D-41F6-8824-424FA624F0FF}" name="Operations" totalsRowFunction="sum" dataDxfId="52">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],April_Balance[[#This Row],[Bank]],Operations[Product],April_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{125B3FEB-0B12-4BE8-83DB-0F2CC6CAE0E8}" name="Closing Balance" totalsRowFunction="sum">
+    <tableColumn id="5" xr3:uid="{125B3FEB-0B12-4BE8-83DB-0F2CC6CAE0E8}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="51">
       <calculatedColumnFormula>April_Balance[[#This Row],[Opening balance]]+April_Balance[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1249,11 +1237,11 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{BE431447-0500-4190-9A8D-48825D0934C2}" name="April_Categories" displayName="April_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="100" dataDxfId="98" totalsRowDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{BE431447-0500-4190-9A8D-48825D0934C2}" name="April_Categories" displayName="April_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="144" dataDxfId="48" totalsRowDxfId="143">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E4F8DD55-6A5B-42EC-AB49-6984B08CCF88}" name="Category" totalsRowLabel="Total" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{90DC355C-76D5-4020-9E15-FBAF386A3710}" name="Sum" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="1" xr3:uid="{E4F8DD55-6A5B-42EC-AB49-6984B08CCF88}" name="Category" totalsRowLabel="Total" dataDxfId="50" totalsRowDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{90DC355C-76D5-4020-9E15-FBAF386A3710}" name="Sum" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="141">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1267,13 +1255,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CDE9FABD-6D41-4B6C-B561-DC674DC2C568}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{192F3390-32DE-4EC4-A37F-58B801A2A202}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{9CAC5EF5-C900-4029-8765-27CBA9F953F8}" name="Opening balance" totalsRowFunction="sum" dataDxfId="157">
+    <tableColumn id="3" xr3:uid="{9CAC5EF5-C900-4029-8765-27CBA9F953F8}" name="Opening balance" totalsRowFunction="sum" dataDxfId="47">
       <calculatedColumnFormula>Febuary_Balance[[#This Row],[Closing Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{56D0AEA5-6684-4098-ADF6-784CF70A738C}" name="Operations" totalsRowFunction="sum" dataDxfId="148">
+    <tableColumn id="4" xr3:uid="{56D0AEA5-6684-4098-ADF6-784CF70A738C}" name="Operations" totalsRowFunction="sum" dataDxfId="46">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],May_Balance[[#This Row],[Bank]],Operations[Product],May_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A50A8C5E-30E1-4E2E-AF38-DE78EA38AEBC}" name="Closing Balance" totalsRowFunction="sum">
+    <tableColumn id="5" xr3:uid="{A50A8C5E-30E1-4E2E-AF38-DE78EA38AEBC}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="45">
       <calculatedColumnFormula>May_Balance[[#This Row],[Opening balance]]+May_Balance[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1282,11 +1270,11 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0878CFB7-C569-4689-822F-83E5A9AABE4F}" name="May_Categories" displayName="May_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="93" dataDxfId="91" totalsRowDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0878CFB7-C569-4689-822F-83E5A9AABE4F}" name="May_Categories" displayName="May_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="140" dataDxfId="42" totalsRowDxfId="139">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{390A2643-FCF3-4DF7-8F80-C3E623662007}" name="Category" totalsRowLabel="Total" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{11F76F81-8014-41C9-BB75-B981DB530747}" name="Sum" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="94">
+    <tableColumn id="1" xr3:uid="{390A2643-FCF3-4DF7-8F80-C3E623662007}" name="Category" totalsRowLabel="Total" dataDxfId="44" totalsRowDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{11F76F81-8014-41C9-BB75-B981DB530747}" name="Sum" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="137">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1300,13 +1288,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{70593C5B-7835-4A19-BC2D-4B3DC7F8ED94}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{91988585-17E5-4721-804B-5341E484C9F9}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{8E7A03DB-EEE1-4F42-8AB4-30D07A6F3284}" name="Opening balance" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="90">
+    <tableColumn id="3" xr3:uid="{8E7A03DB-EEE1-4F42-8AB4-30D07A6F3284}" name="Opening balance" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="136">
       <calculatedColumnFormula>May_Balance[[#This Row],[Closing Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1662A2A0-B03C-469E-9F5D-929BF34B6EE5}" name="Operations" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="88">
+    <tableColumn id="4" xr3:uid="{1662A2A0-B03C-469E-9F5D-929BF34B6EE5}" name="Operations" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="135">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],June_Balance[[#This Row],[Bank]],Operations[Product],June_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D4BC950F-C606-425E-A612-48B25016F8E6}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85">
+    <tableColumn id="5" xr3:uid="{D4BC950F-C606-425E-A612-48B25016F8E6}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="134">
       <calculatedColumnFormula>June_Balance[[#This Row],[Opening balance]]+June_Balance[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1315,11 +1303,11 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{97552195-FD33-4985-BB7E-EAD1EA7EAF9B}" name="June_Categories" displayName="June_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="80" dataDxfId="78" totalsRowDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{97552195-FD33-4985-BB7E-EAD1EA7EAF9B}" name="June_Categories" displayName="June_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="133" dataDxfId="36" totalsRowDxfId="132">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9D753FE2-F219-42F2-B1A7-8A13304CA200}" name="Category" totalsRowLabel="Total" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{812347F2-F6CE-44CA-A42C-080C760E18D5}" name="Sum" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="1" xr3:uid="{9D753FE2-F219-42F2-B1A7-8A13304CA200}" name="Category" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{812347F2-F6CE-44CA-A42C-080C760E18D5}" name="Sum" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="130">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1333,13 +1321,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3B401E37-F4A1-4C62-8D13-D749EC6A0FB4}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{B2565DF9-6F70-4809-B3D1-64285E820D5D}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{E967F21A-4953-4E28-BA27-49128BF09514}" name="Opening balance" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="77">
+    <tableColumn id="3" xr3:uid="{E967F21A-4953-4E28-BA27-49128BF09514}" name="Opening balance" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="129">
       <calculatedColumnFormula>June_Balance[[#This Row],[Closing Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EAB52670-D5C2-4E5D-9C85-A38DE7661C35}" name="Operations" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="75">
+    <tableColumn id="4" xr3:uid="{EAB52670-D5C2-4E5D-9C85-A38DE7661C35}" name="Operations" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="128">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],July_Balance[[#This Row],[Bank]],Operations[Product],July_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0642592C-EB47-4324-AB57-F2CB4E8F611D}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="5" xr3:uid="{0642592C-EB47-4324-AB57-F2CB4E8F611D}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="127">
       <calculatedColumnFormula>July_Balance[[#This Row],[Opening balance]]+July_Balance[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1348,11 +1336,11 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{1EFF2F78-FB5E-4DA6-86BE-F175D517E5E9}" name="July_Categories" displayName="July_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="67" dataDxfId="65" totalsRowDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{1EFF2F78-FB5E-4DA6-86BE-F175D517E5E9}" name="July_Categories" displayName="July_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="126" dataDxfId="30" totalsRowDxfId="125">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D8B1FD66-7C6A-4029-A4EE-1A424941A991}" name="Category" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{7C6D929E-1068-4873-A528-FCB0480B1580}" name="Sum" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="1" xr3:uid="{D8B1FD66-7C6A-4029-A4EE-1A424941A991}" name="Category" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{7C6D929E-1068-4873-A528-FCB0480B1580}" name="Sum" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="123">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1366,13 +1354,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{53613166-35FE-4206-A916-AD43D2B90CD7}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{A80F64B7-3978-49F3-A61C-2DE316139DE1}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{9E556D46-D821-49B3-B8E6-373076D5CA87}" name="Opening balance" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="64">
+    <tableColumn id="3" xr3:uid="{9E556D46-D821-49B3-B8E6-373076D5CA87}" name="Opening balance" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="122">
       <calculatedColumnFormula>July_Balance[[#This Row],[Closing Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{362BAD66-F01C-4625-A751-55A6D92A4154}" name="Operations" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="62">
+    <tableColumn id="4" xr3:uid="{362BAD66-F01C-4625-A751-55A6D92A4154}" name="Operations" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="121">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],August_Balance[[#This Row],[Bank]],Operations[Product],August_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{79706B82-5956-439A-A15C-BEEFFC67BBCB}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="5" xr3:uid="{79706B82-5956-439A-A15C-BEEFFC67BBCB}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="120">
       <calculatedColumnFormula>August_Balance[[#This Row],[Opening balance]]+August_Balance[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1381,11 +1369,11 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{8A83D639-3696-4A47-848E-1F216B9DF826}" name="August_Categories" displayName="August_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="54" dataDxfId="52" totalsRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{8A83D639-3696-4A47-848E-1F216B9DF826}" name="August_Categories" displayName="August_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="119" dataDxfId="24" totalsRowDxfId="118">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{46EC854C-34C7-48CE-8561-9BC7264837D9}" name="Category" totalsRowLabel="Total" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{AB33EE17-AA26-4017-8F78-796F7B2CB567}" name="Sum" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="1" xr3:uid="{46EC854C-34C7-48CE-8561-9BC7264837D9}" name="Category" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{AB33EE17-AA26-4017-8F78-796F7B2CB567}" name="Sum" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="116">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1394,11 +1382,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7757DFC2-F8F9-4662-8093-3BDC1549A246}" name="Table7" displayName="Table7" ref="G1:H8" totalsRowShown="0" tableBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7757DFC2-F8F9-4662-8093-3BDC1549A246}" name="Table7" displayName="Table7" ref="G1:H8" totalsRowShown="0" tableBorderDxfId="154">
   <autoFilter ref="G1:H8" xr:uid="{7757DFC2-F8F9-4662-8093-3BDC1549A246}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{83144F1D-4C94-4122-A3D1-33104C66990C}" name="Bank" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{30F3240E-AB65-4819-A640-F02F52D4F0AC}" name="Product" dataDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{83144F1D-4C94-4122-A3D1-33104C66990C}" name="Bank" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{30F3240E-AB65-4819-A640-F02F52D4F0AC}" name="Product" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1410,13 +1398,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{512DF6CE-C74A-4896-86EE-F2E1766A8972}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{CED3831C-4552-45D4-9431-700D23D95F64}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{A71EFA50-DDED-4A29-83D1-23B674A4570D}" name="Opening balance" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51">
+    <tableColumn id="3" xr3:uid="{A71EFA50-DDED-4A29-83D1-23B674A4570D}" name="Opening balance" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="115">
       <calculatedColumnFormula>August_Balance[[#This Row],[Closing Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{48DDE354-42B8-470F-84F6-07A27F9CA0CD}" name="Operations" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49">
+    <tableColumn id="4" xr3:uid="{48DDE354-42B8-470F-84F6-07A27F9CA0CD}" name="Operations" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="114">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],September_Balance[[#This Row],[Bank]],Operations[Product],September_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{890331CB-9C1A-44A9-8002-BA3236CC1B68}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="5" xr3:uid="{890331CB-9C1A-44A9-8002-BA3236CC1B68}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="113">
       <calculatedColumnFormula>September_Balance[[#This Row],[Opening balance]]+September_Balance[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1425,11 +1413,11 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{ECF7E806-95DD-4CD2-9511-E471FE143CDE}" name="September_Categories" displayName="September_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="41" dataDxfId="39" totalsRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{ECF7E806-95DD-4CD2-9511-E471FE143CDE}" name="September_Categories" displayName="September_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="112" dataDxfId="18" totalsRowDxfId="111">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7B711B11-7EF2-4938-9036-E34E2D968C28}" name="Category" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{3E33F633-7833-40AE-870F-9DBF853977C5}" name="Sum" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="1" xr3:uid="{7B711B11-7EF2-4938-9036-E34E2D968C28}" name="Category" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{3E33F633-7833-40AE-870F-9DBF853977C5}" name="Sum" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="109">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1443,13 +1431,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{701F608D-41B4-46B0-BA50-DF6292D36693}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{4F458906-FDAA-454D-87E9-428A29E75926}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{F7A0DA82-4C00-46E0-B3D0-6503E1360904}" name="Opening balance" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="38">
+    <tableColumn id="3" xr3:uid="{F7A0DA82-4C00-46E0-B3D0-6503E1360904}" name="Opening balance" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="108">
       <calculatedColumnFormula>September_Balance[[#This Row],[Closing Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1FD42556-944D-41DE-8236-C75A72B77286}" name="Operations" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="36">
+    <tableColumn id="4" xr3:uid="{1FD42556-944D-41DE-8236-C75A72B77286}" name="Operations" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="107">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],October_Balance[[#This Row],[Bank]],Operations[Product],October_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{99C1C76A-8723-4C38-BD2C-ED39AC9588C7}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="5" xr3:uid="{99C1C76A-8723-4C38-BD2C-ED39AC9588C7}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="106">
       <calculatedColumnFormula>October_Balance[[#This Row],[Opening balance]]+October_Balance[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1458,11 +1446,11 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{B9A610F4-094E-45A9-9B17-A730A25BADB8}" name="October_Categories" displayName="October_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="28" dataDxfId="26" totalsRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{B9A610F4-094E-45A9-9B17-A730A25BADB8}" name="October_Categories" displayName="October_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="105" dataDxfId="12" totalsRowDxfId="104">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F7706A76-27F7-4D03-B633-92411B06A5D7}" name="Category" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{D4899B15-DA0C-4538-8FB5-EB79614E3524}" name="Sum" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="1" xr3:uid="{F7706A76-27F7-4D03-B633-92411B06A5D7}" name="Category" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{D4899B15-DA0C-4538-8FB5-EB79614E3524}" name="Sum" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="102">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1476,13 +1464,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5A27B73E-9C4D-44C5-B767-21FFAE104696}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{6027F87A-73EE-40FD-9B75-342D0782114B}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{18B06CF1-BE1D-450C-A05A-24C4129603E3}" name="Opening balance" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="25">
+    <tableColumn id="3" xr3:uid="{18B06CF1-BE1D-450C-A05A-24C4129603E3}" name="Opening balance" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="101">
       <calculatedColumnFormula>October_Balance[[#This Row],[Closing Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4D62A3D2-6266-403B-8BC5-E760FA33EC6B}" name="Operations" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="23">
+    <tableColumn id="4" xr3:uid="{4D62A3D2-6266-403B-8BC5-E760FA33EC6B}" name="Operations" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="100">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],November_Balance[[#This Row],[Bank]],Operations[Product],November_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7A85B417-FBF7-487B-BBF6-00FF86BC6197}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="5" xr3:uid="{7A85B417-FBF7-487B-BBF6-00FF86BC6197}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="99">
       <calculatedColumnFormula>November_Balance[[#This Row],[Opening balance]]+November_Balance[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1491,11 +1479,11 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{C4A7FFD5-3999-47F5-AD59-925B8CB3F2D7}" name="November_Categories" displayName="November_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="15" dataDxfId="13" totalsRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{C4A7FFD5-3999-47F5-AD59-925B8CB3F2D7}" name="November_Categories" displayName="November_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="98" dataDxfId="6" totalsRowDxfId="97">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D3211AE7-02A5-4329-9B2F-F7486E5EF24E}" name="Category" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{02ECCDDE-03E0-4E3E-A196-B299ACE2F1D3}" name="Sum" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{D3211AE7-02A5-4329-9B2F-F7486E5EF24E}" name="Category" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{02ECCDDE-03E0-4E3E-A196-B299ACE2F1D3}" name="Sum" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="95">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1509,13 +1497,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1063A347-F372-4D1D-935A-132DAF42964E}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{8F4275C6-341E-43CA-BDBD-71F412959C69}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{1F5AD8D6-4491-4224-9787-C8319515C2A2}" name="Opening balance" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="12">
+    <tableColumn id="3" xr3:uid="{1F5AD8D6-4491-4224-9787-C8319515C2A2}" name="Opening balance" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="94">
       <calculatedColumnFormula>November_Balance[[#This Row],[Closing Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{74229875-9DCD-468D-9BB3-F7E9FDAAF10F}" name="Operations" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="10">
+    <tableColumn id="4" xr3:uid="{74229875-9DCD-468D-9BB3-F7E9FDAAF10F}" name="Operations" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="93">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],December_Balance[[#This Row],[Bank]],Operations[Product],December_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{10AE9BF7-401B-4973-BCEA-C918E037C51C}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="5" xr3:uid="{10AE9BF7-401B-4973-BCEA-C918E037C51C}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="92">
       <calculatedColumnFormula>December_Balance[[#This Row],[Opening balance]]+December_Balance[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1524,11 +1512,11 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{2834E7AA-A7FD-4DDC-9D16-D70DD150501C}" name="December_Categories" displayName="December_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{2834E7AA-A7FD-4DDC-9D16-D70DD150501C}" name="December_Categories" displayName="December_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="91" dataDxfId="0" totalsRowDxfId="90">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E20D50E8-E8C1-400E-8160-E6154F8CA3E7}" name="Category" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D623E8CC-76C0-4B34-871C-15DBB5B61675}" name="Sum" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{E20D50E8-E8C1-400E-8160-E6154F8CA3E7}" name="Category" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{D623E8CC-76C0-4B34-871C-15DBB5B61675}" name="Sum" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="88">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1540,18 +1528,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F2DEF7D1-FCFC-4188-9AB0-E51C709317B1}" name="Operations" displayName="Operations" ref="A1:H207" totalsRowShown="0">
   <autoFilter ref="A1:H207" xr:uid="{F2DEF7D1-FCFC-4188-9AB0-E51C709317B1}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F47E6BD7-461D-41D4-B88B-27F4E41FA9A7}" name="Amount" dataDxfId="150"/>
+    <tableColumn id="1" xr3:uid="{F47E6BD7-461D-41D4-B88B-27F4E41FA9A7}" name="Amount" dataDxfId="151"/>
     <tableColumn id="2" xr3:uid="{9EA0305B-7A25-4747-88F6-287D60D311D4}" name="Bank"/>
     <tableColumn id="3" xr3:uid="{FF7A1956-B45C-49E5-8DEE-5A1FCDEDA625}" name="Product"/>
     <tableColumn id="4" xr3:uid="{05568A61-671D-4DA9-A9FB-1FE1754893BB}" name="Category"/>
-    <tableColumn id="5" xr3:uid="{ABBA6CCE-BE3D-45F7-9E4F-9E23B6A5F055}" name="Type" dataDxfId="153">
+    <tableColumn id="5" xr3:uid="{ABBA6CCE-BE3D-45F7-9E4F-9E23B6A5F055}" name="Type" dataDxfId="150">
       <calculatedColumnFormula>_xlfn.XLOOKUP(D2,Dictionary[Category], Dictionary[Type],"",0,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{E489C212-9F77-4E5E-9698-05C41D91969A}" name="Date"/>
-    <tableColumn id="7" xr3:uid="{B84B09F3-AC9A-411C-8306-A9D0F262E566}" name="Month" dataDxfId="152">
+    <tableColumn id="7" xr3:uid="{B84B09F3-AC9A-411C-8306-A9D0F262E566}" name="Month" dataDxfId="149">
       <calculatedColumnFormula>IF(ISBLANK(Operations[[#This Row],[Date]]), "",MONTH(F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8FF2F38C-1EB5-402A-8678-5959082D871A}" name="Year" dataDxfId="151">
+    <tableColumn id="8" xr3:uid="{8FF2F38C-1EB5-402A-8678-5959082D871A}" name="Year" dataDxfId="148">
       <calculatedColumnFormula>IF(ISBLANK(Operations[[#This Row],[Date]]), "",YEAR(F2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1565,22 +1553,22 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0852A0FF-199E-4071-BE60-631E0418FB27}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{DBDFE257-D3B9-43F5-9262-9B02BD689AE0}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{384ADCF5-611C-4B86-828B-BA6326C2DC7F}" name="Opening balance" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{9E66624C-5975-4F60-94B9-15A153081627}" name="Operations" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="141">
+    <tableColumn id="3" xr3:uid="{384ADCF5-611C-4B86-828B-BA6326C2DC7F}" name="Opening balance" totalsRowFunction="sum" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{9E66624C-5975-4F60-94B9-15A153081627}" name="Operations" totalsRowFunction="sum" dataDxfId="64">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{946F1124-E273-4D0C-B82D-AAA55CE009CE}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="5" xr3:uid="{946F1124-E273-4D0C-B82D-AAA55CE009CE}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}" name="January_Categories" displayName="January_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="133" dataDxfId="131" totalsRowDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}" name="January_Categories" displayName="January_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="83" dataDxfId="60" totalsRowDxfId="82">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{196FEF8F-F983-4DF8-9BA1-5C4D694C647A}" name="Category" totalsRowLabel="Total" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{3BCA8114-1A13-4E38-9329-815CDABEAE32}" name="Sum" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="134">
+    <tableColumn id="1" xr3:uid="{196FEF8F-F983-4DF8-9BA1-5C4D694C647A}" name="Category" totalsRowLabel="Total" dataDxfId="62" totalsRowDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{3BCA8114-1A13-4E38-9329-815CDABEAE32}" name="Sum" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="80">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1594,13 +1582,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E269EBBE-DE60-4B0F-BB79-BF8816592314}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{7BCC438A-E60A-4EED-B180-ABA1FB28973A}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{42BF3C1F-C254-48F7-973B-7F3FA7FBE5EA}" name="Opening balance" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="130">
+    <tableColumn id="3" xr3:uid="{42BF3C1F-C254-48F7-973B-7F3FA7FBE5EA}" name="Opening balance" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="79">
       <calculatedColumnFormula>January_Balance[[#This Row],[Closing Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AB97C9F2-59AA-4E4A-A81F-C2E4F1CCB2F5}" name="Operations" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="128">
+    <tableColumn id="4" xr3:uid="{AB97C9F2-59AA-4E4A-A81F-C2E4F1CCB2F5}" name="Operations" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="78">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9B6F8FC1-F63C-40B9-B7D0-23F59B9D47C0}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125">
+    <tableColumn id="5" xr3:uid="{9B6F8FC1-F63C-40B9-B7D0-23F59B9D47C0}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="77">
       <calculatedColumnFormula>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1609,11 +1597,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A47E620E-7F9B-41CB-AA5D-C98636870FE3}" name="Febuary_Categories" displayName="Febuary_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="120" dataDxfId="118" totalsRowDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A47E620E-7F9B-41CB-AA5D-C98636870FE3}" name="Febuary_Categories" displayName="Febuary_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="76" dataDxfId="54" totalsRowDxfId="75">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72DE053A-F1E7-4BB1-B236-0680D628A262}" name="Category" totalsRowLabel="Total" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{E71B3068-AA96-49D2-8DFA-C1CAB21AE677}" name="Sum" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121">
+    <tableColumn id="1" xr3:uid="{72DE053A-F1E7-4BB1-B236-0680D628A262}" name="Category" totalsRowLabel="Total" dataDxfId="56" totalsRowDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{E71B3068-AA96-49D2-8DFA-C1CAB21AE677}" name="Sum" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="73">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1627,13 +1615,13 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CF4A27F1-E32F-44FD-903F-2E862EFAF807}" name="Bank" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{5B847607-1992-45F0-861E-B0FF1124C6F0}" name="Product"/>
-    <tableColumn id="3" xr3:uid="{0C77C146-1FED-4282-B1A3-6605613225DC}" name="Opening balance" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="117">
+    <tableColumn id="3" xr3:uid="{0C77C146-1FED-4282-B1A3-6605613225DC}" name="Opening balance" totalsRowFunction="sum" dataDxfId="72">
       <calculatedColumnFormula>Febuary_Balance[[#This Row],[Closing Balance]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9E4FFE97-612D-4D2D-9750-F7F281863583}" name="Operations" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="115">
+    <tableColumn id="4" xr3:uid="{9E4FFE97-612D-4D2D-9750-F7F281863583}" name="Operations" totalsRowFunction="sum" dataDxfId="71">
       <calculatedColumnFormula>SUMIFS(Operations[Amount], Operations[Bank],March_Balance[[#This Row],[Bank]],Operations[Product],March_Balance[[#This Row],[Product]],Operations[Month],$B$12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7E173BC4-B6CB-493B-B450-9715D9E31F69}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="5" xr3:uid="{7E173BC4-B6CB-493B-B450-9715D9E31F69}" name="Closing Balance" totalsRowFunction="sum" dataDxfId="70">
       <calculatedColumnFormula>March_Balance[[#This Row],[Opening balance]]+March_Balance[[#This Row],[Operations]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1642,11 +1630,11 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{69BFB9BC-18B4-451F-AF11-B508A4D020A4}" name="March_Categories" displayName="March_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="107" dataDxfId="105" totalsRowDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{69BFB9BC-18B4-451F-AF11-B508A4D020A4}" name="March_Categories" displayName="March_Categories" ref="G1:H21" totalsRowCount="1" headerRowDxfId="147" dataDxfId="146" totalsRowDxfId="145">
   <autoFilter ref="G1:H20" xr:uid="{5C8BFF25-51B7-4D32-A301-9D3B36113922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7CBEF0A8-89A1-4F83-B36D-9234EF333AFA}" name="Category" totalsRowLabel="Total" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{E83E8BF6-657A-4F25-9FF0-D3E9BAD578CF}" name="Sum" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108">
+    <tableColumn id="1" xr3:uid="{7CBEF0A8-89A1-4F83-B36D-9234EF333AFA}" name="Category" totalsRowLabel="Total" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{E83E8BF6-657A-4F25-9FF0-D3E9BAD578CF}" name="Sum" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1919,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2181,16 +2169,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B21">
-    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>"Income"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
       <formula>"Expenses"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="3">
+    <cfRule type="expression" dxfId="85" priority="3">
       <formula>#REF!="Income"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="4">
+    <cfRule type="expression" dxfId="84" priority="4">
       <formula>#REF!="Expenses"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2208,7 +2196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFE5E42-D622-4FE2-9E0D-80A04CF42755}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2218,7 +2208,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2251,22 +2241,22 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <f>July_Balance[[#This Row],[Closing Balance]]</f>
         <v>15337</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],August_Balance[[#This Row],[Bank]],Operations[Product],August_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>2039.5</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <f>August_Balance[[#This Row],[Opening balance]]+August_Balance[[#This Row],[Operations]]</f>
         <v>17376.5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
         <v>-405.5</v>
       </c>
@@ -2278,22 +2268,22 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <f>July_Balance[[#This Row],[Closing Balance]]</f>
         <v>525</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],August_Balance[[#This Row],[Bank]],Operations[Product],August_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>175</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <f>August_Balance[[#This Row],[Opening balance]]+August_Balance[[#This Row],[Operations]]</f>
         <v>700</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
         <v>-350</v>
       </c>
@@ -2305,22 +2295,22 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f>July_Balance[[#This Row],[Closing Balance]]</f>
         <v>0</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],August_Balance[[#This Row],[Bank]],Operations[Product],August_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>-400</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f>August_Balance[[#This Row],[Opening balance]]+August_Balance[[#This Row],[Operations]]</f>
         <v>-400</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
         <v>0</v>
       </c>
@@ -2332,22 +2322,22 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <f>July_Balance[[#This Row],[Closing Balance]]</f>
         <v>205</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],August_Balance[[#This Row],[Bank]],Operations[Product],August_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>35</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <f>August_Balance[[#This Row],[Opening balance]]+August_Balance[[#This Row],[Operations]]</f>
         <v>240</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
         <v>0</v>
       </c>
@@ -2359,22 +2349,22 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <f>July_Balance[[#This Row],[Closing Balance]]</f>
         <v>326</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],August_Balance[[#This Row],[Bank]],Operations[Product],August_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>15</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <f>August_Balance[[#This Row],[Opening balance]]+August_Balance[[#This Row],[Operations]]</f>
         <v>341</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
         <v>-80</v>
       </c>
@@ -2386,22 +2376,22 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <f>July_Balance[[#This Row],[Closing Balance]]</f>
         <v>2180</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],August_Balance[[#This Row],[Bank]],Operations[Product],August_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>500</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <f>August_Balance[[#This Row],[Opening balance]]+August_Balance[[#This Row],[Operations]]</f>
         <v>2680</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
         <v>-250</v>
       </c>
@@ -2413,22 +2403,22 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f>July_Balance[[#This Row],[Closing Balance]]</f>
         <v>400</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],August_Balance[[#This Row],[Bank]],Operations[Product],August_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>100</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f>August_Balance[[#This Row],[Opening balance]]+August_Balance[[#This Row],[Operations]]</f>
         <v>500</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
         <v>-150</v>
       </c>
@@ -2449,28 +2439,28 @@
         <f>SUBTOTAL(109,August_Balance[Closing Balance])</f>
         <v>21437.5</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
         <v>0</v>
       </c>
@@ -2482,19 +2472,19 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
         <v>-765</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
         <v>4500</v>
       </c>
@@ -2508,10 +2498,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
         <v>6565</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
         <v>0</v>
       </c>
@@ -2524,10 +2514,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
         <v>115</v>
       </c>
@@ -2540,46 +2530,46 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
         <v>1950</v>
       </c>
@@ -2606,7 +2596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE43254-5AC7-4743-848F-48D64E6EC76D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2616,7 +2608,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2649,22 +2641,22 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <f>August_Balance[[#This Row],[Closing Balance]]</f>
         <v>17376.5</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],September_Balance[[#This Row],[Bank]],Operations[Product],September_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>2039.5</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <f>September_Balance[[#This Row],[Opening balance]]+September_Balance[[#This Row],[Operations]]</f>
         <v>19416</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
         <v>-405.5</v>
       </c>
@@ -2676,22 +2668,22 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <f>August_Balance[[#This Row],[Closing Balance]]</f>
         <v>700</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],September_Balance[[#This Row],[Bank]],Operations[Product],September_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>175</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <f>September_Balance[[#This Row],[Opening balance]]+September_Balance[[#This Row],[Operations]]</f>
         <v>875</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
         <v>-350</v>
       </c>
@@ -2703,22 +2695,22 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f>August_Balance[[#This Row],[Closing Balance]]</f>
         <v>-400</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],September_Balance[[#This Row],[Bank]],Operations[Product],September_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>-400</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f>September_Balance[[#This Row],[Opening balance]]+September_Balance[[#This Row],[Operations]]</f>
         <v>-800</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
         <v>0</v>
       </c>
@@ -2730,22 +2722,22 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <f>August_Balance[[#This Row],[Closing Balance]]</f>
         <v>240</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],September_Balance[[#This Row],[Bank]],Operations[Product],September_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>35</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <f>September_Balance[[#This Row],[Opening balance]]+September_Balance[[#This Row],[Operations]]</f>
         <v>275</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
         <v>0</v>
       </c>
@@ -2757,22 +2749,22 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <f>August_Balance[[#This Row],[Closing Balance]]</f>
         <v>341</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],September_Balance[[#This Row],[Bank]],Operations[Product],September_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>15</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <f>September_Balance[[#This Row],[Opening balance]]+September_Balance[[#This Row],[Operations]]</f>
         <v>356</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
         <v>-80</v>
       </c>
@@ -2784,22 +2776,22 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <f>August_Balance[[#This Row],[Closing Balance]]</f>
         <v>2680</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],September_Balance[[#This Row],[Bank]],Operations[Product],September_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>500</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <f>September_Balance[[#This Row],[Opening balance]]+September_Balance[[#This Row],[Operations]]</f>
         <v>3180</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
         <v>-250</v>
       </c>
@@ -2811,22 +2803,22 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f>August_Balance[[#This Row],[Closing Balance]]</f>
         <v>500</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],September_Balance[[#This Row],[Bank]],Operations[Product],September_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>100</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f>September_Balance[[#This Row],[Opening balance]]+September_Balance[[#This Row],[Operations]]</f>
         <v>600</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
         <v>-150</v>
       </c>
@@ -2847,28 +2839,28 @@
         <f>SUBTOTAL(109,September_Balance[Closing Balance])</f>
         <v>23902</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
         <v>0</v>
       </c>
@@ -2880,19 +2872,19 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
         <v>-765</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
         <v>4500</v>
       </c>
@@ -2906,10 +2898,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
         <v>6565</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
         <v>0</v>
       </c>
@@ -2922,10 +2914,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
         <v>115</v>
       </c>
@@ -2938,46 +2930,46 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
         <v>1950</v>
       </c>
@@ -3004,7 +2996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F000FD-4A92-4AB0-BFD9-0D5730885A07}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3014,7 +3008,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3047,22 +3041,22 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <f>September_Balance[[#This Row],[Closing Balance]]</f>
         <v>19416</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],October_Balance[[#This Row],[Bank]],Operations[Product],October_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>2039.5</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <f>October_Balance[[#This Row],[Opening balance]]+October_Balance[[#This Row],[Operations]]</f>
         <v>21455.5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
         <v>-405.5</v>
       </c>
@@ -3074,22 +3068,22 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <f>September_Balance[[#This Row],[Closing Balance]]</f>
         <v>875</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],October_Balance[[#This Row],[Bank]],Operations[Product],October_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>175</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <f>October_Balance[[#This Row],[Opening balance]]+October_Balance[[#This Row],[Operations]]</f>
         <v>1050</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
         <v>-350</v>
       </c>
@@ -3101,22 +3095,22 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f>September_Balance[[#This Row],[Closing Balance]]</f>
         <v>-800</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],October_Balance[[#This Row],[Bank]],Operations[Product],October_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>-400</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f>October_Balance[[#This Row],[Opening balance]]+October_Balance[[#This Row],[Operations]]</f>
         <v>-1200</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
         <v>0</v>
       </c>
@@ -3128,22 +3122,22 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <f>September_Balance[[#This Row],[Closing Balance]]</f>
         <v>275</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],October_Balance[[#This Row],[Bank]],Operations[Product],October_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>35</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <f>October_Balance[[#This Row],[Opening balance]]+October_Balance[[#This Row],[Operations]]</f>
         <v>310</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
         <v>0</v>
       </c>
@@ -3155,22 +3149,22 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <f>September_Balance[[#This Row],[Closing Balance]]</f>
         <v>356</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],October_Balance[[#This Row],[Bank]],Operations[Product],October_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>15</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <f>October_Balance[[#This Row],[Opening balance]]+October_Balance[[#This Row],[Operations]]</f>
         <v>371</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
         <v>-80</v>
       </c>
@@ -3182,22 +3176,22 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <f>September_Balance[[#This Row],[Closing Balance]]</f>
         <v>3180</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],October_Balance[[#This Row],[Bank]],Operations[Product],October_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>500</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <f>October_Balance[[#This Row],[Opening balance]]+October_Balance[[#This Row],[Operations]]</f>
         <v>3680</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
         <v>-250</v>
       </c>
@@ -3209,22 +3203,22 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f>September_Balance[[#This Row],[Closing Balance]]</f>
         <v>600</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],October_Balance[[#This Row],[Bank]],Operations[Product],October_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>100</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f>October_Balance[[#This Row],[Opening balance]]+October_Balance[[#This Row],[Operations]]</f>
         <v>700</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
         <v>-150</v>
       </c>
@@ -3245,28 +3239,28 @@
         <f>SUBTOTAL(109,October_Balance[Closing Balance])</f>
         <v>26366.5</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
         <v>0</v>
       </c>
@@ -3278,19 +3272,19 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
         <v>-765</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
         <v>4500</v>
       </c>
@@ -3304,10 +3298,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
         <v>6565</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
         <v>0</v>
       </c>
@@ -3320,10 +3314,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
         <v>115</v>
       </c>
@@ -3336,46 +3330,46 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
         <v>1950</v>
       </c>
@@ -3402,7 +3396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA2D6D3-BED8-4FF6-B1C1-E2651D97302D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H20" sqref="G2:H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3412,7 +3408,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3445,22 +3441,22 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <f>October_Balance[[#This Row],[Closing Balance]]</f>
         <v>21455.5</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],November_Balance[[#This Row],[Bank]],Operations[Product],November_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>2039.5</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <f>November_Balance[[#This Row],[Opening balance]]+November_Balance[[#This Row],[Operations]]</f>
         <v>23495</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
         <v>-405.5</v>
       </c>
@@ -3472,22 +3468,22 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <f>October_Balance[[#This Row],[Closing Balance]]</f>
         <v>1050</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],November_Balance[[#This Row],[Bank]],Operations[Product],November_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>175</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <f>November_Balance[[#This Row],[Opening balance]]+November_Balance[[#This Row],[Operations]]</f>
         <v>1225</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
         <v>-350</v>
       </c>
@@ -3499,22 +3495,22 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f>October_Balance[[#This Row],[Closing Balance]]</f>
         <v>-1200</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],November_Balance[[#This Row],[Bank]],Operations[Product],November_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>-400</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f>November_Balance[[#This Row],[Opening balance]]+November_Balance[[#This Row],[Operations]]</f>
         <v>-1600</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
         <v>0</v>
       </c>
@@ -3526,22 +3522,22 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <f>October_Balance[[#This Row],[Closing Balance]]</f>
         <v>310</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],November_Balance[[#This Row],[Bank]],Operations[Product],November_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>35</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <f>November_Balance[[#This Row],[Opening balance]]+November_Balance[[#This Row],[Operations]]</f>
         <v>345</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
         <v>0</v>
       </c>
@@ -3553,22 +3549,22 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <f>October_Balance[[#This Row],[Closing Balance]]</f>
         <v>371</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],November_Balance[[#This Row],[Bank]],Operations[Product],November_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>15</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <f>November_Balance[[#This Row],[Opening balance]]+November_Balance[[#This Row],[Operations]]</f>
         <v>386</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
         <v>-80</v>
       </c>
@@ -3580,22 +3576,22 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <f>October_Balance[[#This Row],[Closing Balance]]</f>
         <v>3680</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],November_Balance[[#This Row],[Bank]],Operations[Product],November_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>500</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <f>November_Balance[[#This Row],[Opening balance]]+November_Balance[[#This Row],[Operations]]</f>
         <v>4180</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
         <v>-250</v>
       </c>
@@ -3607,22 +3603,22 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f>October_Balance[[#This Row],[Closing Balance]]</f>
         <v>700</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],November_Balance[[#This Row],[Bank]],Operations[Product],November_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>100</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f>November_Balance[[#This Row],[Opening balance]]+November_Balance[[#This Row],[Operations]]</f>
         <v>800</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
         <v>-150</v>
       </c>
@@ -3643,28 +3639,28 @@
         <f>SUBTOTAL(109,November_Balance[Closing Balance])</f>
         <v>28831</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
         <v>0</v>
       </c>
@@ -3676,19 +3672,19 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
         <v>-765</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
         <v>4500</v>
       </c>
@@ -3702,10 +3698,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
         <v>6565</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
         <v>0</v>
       </c>
@@ -3718,10 +3714,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
         <v>115</v>
       </c>
@@ -3734,46 +3730,46 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
         <v>1950</v>
       </c>
@@ -3800,7 +3796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114B0C94-F2D6-4306-937A-93DE5733F386}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3810,7 +3808,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3843,22 +3841,22 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <f>November_Balance[[#This Row],[Closing Balance]]</f>
         <v>23495</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],December_Balance[[#This Row],[Bank]],Operations[Product],December_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>2039.5</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <f>December_Balance[[#This Row],[Opening balance]]+December_Balance[[#This Row],[Operations]]</f>
         <v>25534.5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
         <v>-405.5</v>
       </c>
@@ -3870,22 +3868,22 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <f>November_Balance[[#This Row],[Closing Balance]]</f>
         <v>1225</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],December_Balance[[#This Row],[Bank]],Operations[Product],December_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>175</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <f>December_Balance[[#This Row],[Opening balance]]+December_Balance[[#This Row],[Operations]]</f>
         <v>1400</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
         <v>-350</v>
       </c>
@@ -3897,22 +3895,22 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f>November_Balance[[#This Row],[Closing Balance]]</f>
         <v>-1600</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],December_Balance[[#This Row],[Bank]],Operations[Product],December_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>-400</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f>December_Balance[[#This Row],[Opening balance]]+December_Balance[[#This Row],[Operations]]</f>
         <v>-2000</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
         <v>0</v>
       </c>
@@ -3924,22 +3922,22 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <f>November_Balance[[#This Row],[Closing Balance]]</f>
         <v>345</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],December_Balance[[#This Row],[Bank]],Operations[Product],December_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>35</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <f>December_Balance[[#This Row],[Opening balance]]+December_Balance[[#This Row],[Operations]]</f>
         <v>380</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
         <v>0</v>
       </c>
@@ -3951,22 +3949,22 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <f>November_Balance[[#This Row],[Closing Balance]]</f>
         <v>386</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],December_Balance[[#This Row],[Bank]],Operations[Product],December_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>15</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <f>December_Balance[[#This Row],[Opening balance]]+December_Balance[[#This Row],[Operations]]</f>
         <v>401</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
         <v>-80</v>
       </c>
@@ -3978,22 +3976,22 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <f>November_Balance[[#This Row],[Closing Balance]]</f>
         <v>4180</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],December_Balance[[#This Row],[Bank]],Operations[Product],December_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>500</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <f>December_Balance[[#This Row],[Opening balance]]+December_Balance[[#This Row],[Operations]]</f>
         <v>4680</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
         <v>-250</v>
       </c>
@@ -4005,22 +4003,22 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f>November_Balance[[#This Row],[Closing Balance]]</f>
         <v>800</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],December_Balance[[#This Row],[Bank]],Operations[Product],December_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>100</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f>December_Balance[[#This Row],[Opening balance]]+December_Balance[[#This Row],[Operations]]</f>
         <v>900</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
         <v>-150</v>
       </c>
@@ -4041,28 +4039,28 @@
         <f>SUBTOTAL(109,December_Balance[Closing Balance])</f>
         <v>31295.5</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
         <v>0</v>
       </c>
@@ -4074,19 +4072,19 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
         <v>-765</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
         <v>4500</v>
       </c>
@@ -4100,10 +4098,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
         <v>6565</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
         <v>0</v>
       </c>
@@ -4116,10 +4114,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
         <v>115</v>
       </c>
@@ -4132,46 +4130,46 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
         <v>1950</v>
       </c>
@@ -10271,7 +10269,400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00296AB1-24BB-4956-85ED-BC25314CC0AA}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>1100</v>
+      </c>
+      <c r="E2" s="17">
+        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
+        <v>3100</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
+        <v>-1715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>-175</v>
+      </c>
+      <c r="E3" s="17">
+        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
+        <v>-175</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>-400</v>
+      </c>
+      <c r="E4" s="17">
+        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
+        <v>1600</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17">
+        <v>100</v>
+      </c>
+      <c r="D5" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>-35</v>
+      </c>
+      <c r="E5" s="17">
+        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
+        <v>65</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="17">
+        <v>10.5</v>
+      </c>
+      <c r="D6" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>255.5</v>
+      </c>
+      <c r="E6" s="17">
+        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
+        <v>266</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="17">
+        <v>30</v>
+      </c>
+      <c r="D7" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>150</v>
+      </c>
+      <c r="E7" s="17">
+        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
+        <v>180</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="17">
+        <v>50</v>
+      </c>
+      <c r="D8" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>-50</v>
+      </c>
+      <c r="E8" s="17">
+        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="19">
+        <f>SUBTOTAL(109,January_Balance[Opening balance])</f>
+        <v>4190.5</v>
+      </c>
+      <c r="D9" s="19">
+        <f>SUBTOTAL(109,January_Balance[Operations])</f>
+        <v>845.5</v>
+      </c>
+      <c r="E9" s="19">
+        <f>SUBTOTAL(109,January_Balance[Closing Balance])</f>
+        <v>5036</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="str" cm="1">
+        <f t="array" ref="A14:A16">_xlfn.UNIQUE(Dictionary[Type])</f>
+        <v>Expenses</v>
+      </c>
+      <c r="B14">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
+        <v>5655.5</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <v>Income</v>
+      </c>
+      <c r="B15">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <v>Transaction</v>
+      </c>
+      <c r="B16">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="17">
+        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="19">
+        <f>SUBTOTAL(109,January_Categories[Sum])</f>
+        <v>2845.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B202CF1-EAE8-4103-A804-021C253ADF5B}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10314,23 +10705,24 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>1100</v>
-      </c>
-      <c r="E2" s="19">
-        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
+      <c r="C2" s="17">
+        <f>January_Balance[[#This Row],[Closing Balance]]</f>
         <v>3100</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="D2" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>2039.5</v>
+      </c>
+      <c r="E2" s="17">
+        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
+        <v>5139.5</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
-        <v>-1715</v>
+        <v>-405.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -10340,23 +10732,24 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+      <c r="C3" s="17">
+        <f>January_Balance[[#This Row],[Closing Balance]]</f>
         <v>-175</v>
       </c>
-      <c r="E3" s="19">
-        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
-        <v>-175</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="D3" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>175</v>
+      </c>
+      <c r="E3" s="17">
+        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
-        <v>-85</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -10366,21 +10759,22 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+      <c r="C4" s="17">
+        <f>January_Balance[[#This Row],[Closing Balance]]</f>
+        <v>1600</v>
+      </c>
+      <c r="D4" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>-400</v>
       </c>
-      <c r="E4" s="19">
-        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
-        <v>1600</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="E4" s="17">
+        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
+        <v>1200</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
         <v>0</v>
       </c>
@@ -10392,23 +10786,24 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
+        <f>January_Balance[[#This Row],[Closing Balance]]</f>
+        <v>65</v>
+      </c>
+      <c r="D5" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>35</v>
+      </c>
+      <c r="E5" s="17">
+        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
         <v>100</v>
       </c>
-      <c r="D5" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>-35</v>
-      </c>
-      <c r="E5" s="19">
-        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
-        <v>65</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -10418,21 +10813,22 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19">
-        <v>10.5</v>
-      </c>
-      <c r="D6" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>255.5</v>
-      </c>
-      <c r="E6" s="19">
-        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
+      <c r="C6" s="17">
+        <f>January_Balance[[#This Row],[Closing Balance]]</f>
         <v>266</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="D6" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>15</v>
+      </c>
+      <c r="E6" s="17">
+        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
+        <v>281</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
         <v>-80</v>
       </c>
@@ -10444,23 +10840,24 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19">
-        <v>30</v>
-      </c>
-      <c r="D7" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>150</v>
-      </c>
-      <c r="E7" s="19">
-        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
+      <c r="C7" s="17">
+        <f>January_Balance[[#This Row],[Closing Balance]]</f>
         <v>180</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="D7" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>500</v>
+      </c>
+      <c r="E7" s="17">
+        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
+        <v>680</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
-        <v>-100</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -10470,21 +10867,22 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19">
-        <v>50</v>
-      </c>
-      <c r="D8" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],January_Balance[[#This Row],[Bank]],Operations[Product],January_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>-50</v>
-      </c>
-      <c r="E8" s="19">
-        <f>January_Balance[[#This Row],[Opening balance]]+January_Balance[[#This Row],[Operations]]</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="C8" s="17">
+        <f>January_Balance[[#This Row],[Closing Balance]]</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
+        <v>100</v>
+      </c>
+      <c r="E8" s="17">
+        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
+        <v>100</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
         <v>-150</v>
       </c>
@@ -10494,39 +10892,39 @@
         <v>42</v>
       </c>
       <c r="C9" s="19">
-        <f>SUBTOTAL(109,January_Balance[Opening balance])</f>
-        <v>4190.5</v>
+        <f>SUBTOTAL(109,Febuary_Balance[Opening balance])</f>
+        <v>5036</v>
       </c>
       <c r="D9" s="19">
-        <f>SUBTOTAL(109,January_Balance[Operations])</f>
-        <v>845.5</v>
+        <f>SUBTOTAL(109,Febuary_Balance[Operations])</f>
+        <v>2464.5</v>
       </c>
       <c r="E9" s="19">
-        <f>SUBTOTAL(109,January_Balance[Closing Balance])</f>
-        <v>5036</v>
-      </c>
-      <c r="G9" s="19" t="s">
+        <f>SUBTOTAL(109,Febuary_Balance[Closing Balance])</f>
+        <v>7500.5</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
         <v>0</v>
       </c>
@@ -10536,21 +10934,21 @@
         <v>36</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
-        <v>-500</v>
+        <v>-765</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
         <v>4500</v>
       </c>
@@ -10562,14 +10960,14 @@
       </c>
       <c r="B14">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
-        <v>5655.5</v>
-      </c>
-      <c r="G14" s="19" t="s">
+        <v>6565</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10580,12 +10978,12 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
-        <v>105.5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -10596,48 +10994,48 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
-        <v>800</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.25">
@@ -10645,8 +11043,8 @@
         <v>42</v>
       </c>
       <c r="H21" s="19">
-        <f>SUBTOTAL(109,January_Categories[Sum])</f>
-        <v>2845.5</v>
+        <f>SUBTOTAL(109,Febuary_Categories[Sum])</f>
+        <v>4464.5</v>
       </c>
     </row>
   </sheetData>
@@ -10658,11 +11056,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B202CF1-EAE8-4103-A804-021C253ADF5B}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EA68F9-6A69-41E3-A15E-F3A250847F5C}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10706,404 +11106,6 @@
         <v>24</v>
       </c>
       <c r="C2" s="19">
-        <f>January_Balance[[#This Row],[Closing Balance]]</f>
-        <v>3100</v>
-      </c>
-      <c r="D2" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>2039.5</v>
-      </c>
-      <c r="E2" s="19">
-        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
-        <v>5139.5</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
-        <v>-405.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="19">
-        <f>January_Balance[[#This Row],[Closing Balance]]</f>
-        <v>-175</v>
-      </c>
-      <c r="D3" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>175</v>
-      </c>
-      <c r="E3" s="19">
-        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
-        <v>-350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="19">
-        <f>January_Balance[[#This Row],[Closing Balance]]</f>
-        <v>1600</v>
-      </c>
-      <c r="D4" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>-400</v>
-      </c>
-      <c r="E4" s="19">
-        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
-        <v>1200</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="19">
-        <f>January_Balance[[#This Row],[Closing Balance]]</f>
-        <v>65</v>
-      </c>
-      <c r="D5" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>35</v>
-      </c>
-      <c r="E5" s="19">
-        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
-        <v>100</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="19">
-        <f>January_Balance[[#This Row],[Closing Balance]]</f>
-        <v>266</v>
-      </c>
-      <c r="D6" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>15</v>
-      </c>
-      <c r="E6" s="19">
-        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
-        <v>281</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="19">
-        <f>January_Balance[[#This Row],[Closing Balance]]</f>
-        <v>180</v>
-      </c>
-      <c r="D7" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>500</v>
-      </c>
-      <c r="E7" s="19">
-        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
-        <v>680</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="19">
-        <f>January_Balance[[#This Row],[Closing Balance]]</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
-        <f>SUMIFS(Operations[Amount], Operations[Bank],Febuary_Balance[[#This Row],[Bank]],Operations[Product],Febuary_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
-        <v>100</v>
-      </c>
-      <c r="E8" s="19">
-        <f>Febuary_Balance[[#This Row],[Opening balance]]+Febuary_Balance[[#This Row],[Operations]]</f>
-        <v>100</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="19">
-        <f>SUBTOTAL(109,Febuary_Balance[Opening balance])</f>
-        <v>5036</v>
-      </c>
-      <c r="D9" s="19">
-        <f>SUBTOTAL(109,Febuary_Balance[Operations])</f>
-        <v>2464.5</v>
-      </c>
-      <c r="E9" s="19">
-        <f>SUBTOTAL(109,Febuary_Balance[Closing Balance])</f>
-        <v>7500.5</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
-        <v>-765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="str" cm="1">
-        <f t="array" ref="A14:A16">_xlfn.UNIQUE(Dictionary[Type])</f>
-        <v>Expenses</v>
-      </c>
-      <c r="B14">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
-        <v>6565</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <v>Income</v>
-      </c>
-      <c r="B15">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <v>Transaction</v>
-      </c>
-      <c r="B16">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="19">
-        <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="19">
-        <f>SUBTOTAL(109,Febuary_Categories[Sum])</f>
-        <v>4464.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EA68F9-6A69-41E3-A15E-F3A250847F5C}">
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="19">
         <f>Febuary_Balance[[#This Row],[Closing Balance]]</f>
         <v>5139.5</v>
       </c>
@@ -11458,7 +11460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E859305-11F3-4919-BA33-174D75E5572E}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11468,7 +11472,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -11501,22 +11505,22 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="17">
         <f>March_Balance[[#This Row],[Closing Balance]]</f>
         <v>7179</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],April_Balance[[#This Row],[Bank]],Operations[Product],April_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>2039.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="17">
         <f>April_Balance[[#This Row],[Opening balance]]+April_Balance[[#This Row],[Operations]]</f>
         <v>9218.5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
         <v>-405.5</v>
       </c>
@@ -11528,22 +11532,22 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="17">
         <f>March_Balance[[#This Row],[Closing Balance]]</f>
         <v>175</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],April_Balance[[#This Row],[Bank]],Operations[Product],April_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>175</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="17">
         <f>April_Balance[[#This Row],[Opening balance]]+April_Balance[[#This Row],[Operations]]</f>
         <v>350</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
         <v>-350</v>
       </c>
@@ -11555,22 +11559,22 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="17">
         <f>March_Balance[[#This Row],[Closing Balance]]</f>
         <v>800</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],April_Balance[[#This Row],[Bank]],Operations[Product],April_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>-400</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="17">
         <f>April_Balance[[#This Row],[Opening balance]]+April_Balance[[#This Row],[Operations]]</f>
         <v>400</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
         <v>0</v>
       </c>
@@ -11582,22 +11586,22 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="17">
         <f>March_Balance[[#This Row],[Closing Balance]]</f>
         <v>135</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],April_Balance[[#This Row],[Bank]],Operations[Product],April_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="17">
         <f>April_Balance[[#This Row],[Opening balance]]+April_Balance[[#This Row],[Operations]]</f>
         <v>170</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
         <v>0</v>
       </c>
@@ -11609,22 +11613,22 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="17">
         <f>March_Balance[[#This Row],[Closing Balance]]</f>
         <v>296</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],April_Balance[[#This Row],[Bank]],Operations[Product],April_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="17">
         <f>April_Balance[[#This Row],[Opening balance]]+April_Balance[[#This Row],[Operations]]</f>
         <v>311</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
         <v>-80</v>
       </c>
@@ -11636,22 +11640,22 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="17">
         <f>March_Balance[[#This Row],[Closing Balance]]</f>
         <v>1180</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],April_Balance[[#This Row],[Bank]],Operations[Product],April_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>500</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="17">
         <f>April_Balance[[#This Row],[Opening balance]]+April_Balance[[#This Row],[Operations]]</f>
         <v>1680</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
         <v>-250</v>
       </c>
@@ -11663,22 +11667,22 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="17">
         <f>March_Balance[[#This Row],[Closing Balance]]</f>
         <v>200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],April_Balance[[#This Row],[Bank]],Operations[Product],April_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>100</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="17">
         <f>April_Balance[[#This Row],[Opening balance]]+April_Balance[[#This Row],[Operations]]</f>
         <v>300</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
         <v>-150</v>
       </c>
@@ -11699,28 +11703,28 @@
         <f>SUBTOTAL(109,April_Balance[Closing Balance])</f>
         <v>12429.5</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
         <v>0</v>
       </c>
@@ -11732,19 +11736,19 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
         <v>-765</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
         <v>4500</v>
       </c>
@@ -11758,10 +11762,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
         <v>6565</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
         <v>0</v>
       </c>
@@ -11774,10 +11778,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
         <v>115</v>
       </c>
@@ -11790,46 +11794,46 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
         <v>1950</v>
       </c>
@@ -11856,7 +11860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4845E277-3746-4583-93E2-3DFA66EBA131}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11866,7 +11872,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -11899,22 +11905,22 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="17">
         <f>April_Balance[[#This Row],[Closing Balance]]</f>
         <v>9218.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],May_Balance[[#This Row],[Bank]],Operations[Product],May_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>2039.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="17">
         <f>May_Balance[[#This Row],[Opening balance]]+May_Balance[[#This Row],[Operations]]</f>
         <v>11258</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
         <v>-405.5</v>
       </c>
@@ -11926,22 +11932,22 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="17">
         <f>Febuary_Balance[[#This Row],[Closing Balance]]</f>
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],May_Balance[[#This Row],[Bank]],Operations[Product],May_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>175</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="17">
         <f>May_Balance[[#This Row],[Opening balance]]+May_Balance[[#This Row],[Operations]]</f>
         <v>175</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
         <v>-350</v>
       </c>
@@ -11953,22 +11959,22 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="17">
         <f>Febuary_Balance[[#This Row],[Closing Balance]]</f>
         <v>1200</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],May_Balance[[#This Row],[Bank]],Operations[Product],May_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>-400</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="17">
         <f>May_Balance[[#This Row],[Opening balance]]+May_Balance[[#This Row],[Operations]]</f>
         <v>800</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
         <v>0</v>
       </c>
@@ -11980,22 +11986,22 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="17">
         <f>Febuary_Balance[[#This Row],[Closing Balance]]</f>
         <v>100</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],May_Balance[[#This Row],[Bank]],Operations[Product],May_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="17">
         <f>May_Balance[[#This Row],[Opening balance]]+May_Balance[[#This Row],[Operations]]</f>
         <v>135</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
         <v>0</v>
       </c>
@@ -12007,22 +12013,22 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="17">
         <f>Febuary_Balance[[#This Row],[Closing Balance]]</f>
         <v>281</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],May_Balance[[#This Row],[Bank]],Operations[Product],May_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="17">
         <f>May_Balance[[#This Row],[Opening balance]]+May_Balance[[#This Row],[Operations]]</f>
         <v>296</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
         <v>-80</v>
       </c>
@@ -12034,22 +12040,22 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="17">
         <f>Febuary_Balance[[#This Row],[Closing Balance]]</f>
         <v>680</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],May_Balance[[#This Row],[Bank]],Operations[Product],May_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>500</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="17">
         <f>May_Balance[[#This Row],[Opening balance]]+May_Balance[[#This Row],[Operations]]</f>
         <v>1180</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
         <v>-250</v>
       </c>
@@ -12061,22 +12067,22 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="17">
         <f>Febuary_Balance[[#This Row],[Closing Balance]]</f>
         <v>100</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],May_Balance[[#This Row],[Bank]],Operations[Product],May_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>100</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="17">
         <f>May_Balance[[#This Row],[Opening balance]]+May_Balance[[#This Row],[Operations]]</f>
         <v>200</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
         <v>-150</v>
       </c>
@@ -12097,28 +12103,28 @@
         <f>SUBTOTAL(109,May_Balance[Closing Balance])</f>
         <v>14044</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
         <v>0</v>
       </c>
@@ -12130,19 +12136,19 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
         <v>-765</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
         <v>4500</v>
       </c>
@@ -12156,10 +12162,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
         <v>6565</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
         <v>0</v>
       </c>
@@ -12172,10 +12178,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
         <v>115</v>
       </c>
@@ -12188,46 +12194,46 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
         <v>1950</v>
       </c>
@@ -12254,7 +12260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53092C0C-1456-4AC9-86A6-2B81422B5176}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H20" sqref="G2:H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12264,7 +12272,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -12297,22 +12305,22 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <f>May_Balance[[#This Row],[Closing Balance]]</f>
         <v>11258</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],June_Balance[[#This Row],[Bank]],Operations[Product],June_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>2039.5</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <f>June_Balance[[#This Row],[Opening balance]]+June_Balance[[#This Row],[Operations]]</f>
         <v>13297.5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
         <v>-405.5</v>
       </c>
@@ -12324,22 +12332,22 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <f>May_Balance[[#This Row],[Closing Balance]]</f>
         <v>175</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],June_Balance[[#This Row],[Bank]],Operations[Product],June_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>175</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <f>June_Balance[[#This Row],[Opening balance]]+June_Balance[[#This Row],[Operations]]</f>
         <v>350</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
         <v>-350</v>
       </c>
@@ -12351,22 +12359,22 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f>May_Balance[[#This Row],[Closing Balance]]</f>
         <v>800</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],June_Balance[[#This Row],[Bank]],Operations[Product],June_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>-400</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f>June_Balance[[#This Row],[Opening balance]]+June_Balance[[#This Row],[Operations]]</f>
         <v>400</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
         <v>0</v>
       </c>
@@ -12378,22 +12386,22 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <f>May_Balance[[#This Row],[Closing Balance]]</f>
         <v>135</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],June_Balance[[#This Row],[Bank]],Operations[Product],June_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>35</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <f>June_Balance[[#This Row],[Opening balance]]+June_Balance[[#This Row],[Operations]]</f>
         <v>170</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
         <v>0</v>
       </c>
@@ -12405,22 +12413,22 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <f>May_Balance[[#This Row],[Closing Balance]]</f>
         <v>296</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],June_Balance[[#This Row],[Bank]],Operations[Product],June_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>15</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <f>June_Balance[[#This Row],[Opening balance]]+June_Balance[[#This Row],[Operations]]</f>
         <v>311</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
         <v>-80</v>
       </c>
@@ -12432,22 +12440,22 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <f>May_Balance[[#This Row],[Closing Balance]]</f>
         <v>1180</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],June_Balance[[#This Row],[Bank]],Operations[Product],June_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>500</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <f>June_Balance[[#This Row],[Opening balance]]+June_Balance[[#This Row],[Operations]]</f>
         <v>1680</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
         <v>-250</v>
       </c>
@@ -12459,22 +12467,22 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f>May_Balance[[#This Row],[Closing Balance]]</f>
         <v>200</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],June_Balance[[#This Row],[Bank]],Operations[Product],June_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>100</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f>June_Balance[[#This Row],[Opening balance]]+June_Balance[[#This Row],[Operations]]</f>
         <v>300</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
         <v>-150</v>
       </c>
@@ -12495,28 +12503,28 @@
         <f>SUBTOTAL(109,June_Balance[Closing Balance])</f>
         <v>16508.5</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
         <v>0</v>
       </c>
@@ -12528,19 +12536,19 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
         <v>-765</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
         <v>4500</v>
       </c>
@@ -12554,10 +12562,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
         <v>6565</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
         <v>0</v>
       </c>
@@ -12570,10 +12578,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
         <v>115</v>
       </c>
@@ -12586,46 +12594,46 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
         <v>1950</v>
       </c>
@@ -12652,7 +12660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ACC171-DC61-448E-B6CF-E78D38928932}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12662,7 +12672,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -12695,22 +12705,22 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <f>June_Balance[[#This Row],[Closing Balance]]</f>
         <v>13297.5</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],July_Balance[[#This Row],[Bank]],Operations[Product],July_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>2039.5</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <f>July_Balance[[#This Row],[Opening balance]]+July_Balance[[#This Row],[Operations]]</f>
         <v>15337</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G2)</f>
         <v>-405.5</v>
       </c>
@@ -12722,22 +12732,22 @@
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <f>June_Balance[[#This Row],[Closing Balance]]</f>
         <v>350</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],July_Balance[[#This Row],[Bank]],Operations[Product],July_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>175</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <f>July_Balance[[#This Row],[Opening balance]]+July_Balance[[#This Row],[Operations]]</f>
         <v>525</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G3)</f>
         <v>-350</v>
       </c>
@@ -12749,22 +12759,22 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f>June_Balance[[#This Row],[Closing Balance]]</f>
         <v>400</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],July_Balance[[#This Row],[Bank]],Operations[Product],July_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>-400</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <f>July_Balance[[#This Row],[Opening balance]]+July_Balance[[#This Row],[Operations]]</f>
         <v>0</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G4)</f>
         <v>0</v>
       </c>
@@ -12776,22 +12786,22 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <f>June_Balance[[#This Row],[Closing Balance]]</f>
         <v>170</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],July_Balance[[#This Row],[Bank]],Operations[Product],July_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>35</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <f>July_Balance[[#This Row],[Opening balance]]+July_Balance[[#This Row],[Operations]]</f>
         <v>205</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G5)</f>
         <v>0</v>
       </c>
@@ -12803,22 +12813,22 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <f>June_Balance[[#This Row],[Closing Balance]]</f>
         <v>311</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],July_Balance[[#This Row],[Bank]],Operations[Product],July_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>15</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <f>July_Balance[[#This Row],[Opening balance]]+July_Balance[[#This Row],[Operations]]</f>
         <v>326</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G6)</f>
         <v>-80</v>
       </c>
@@ -12830,22 +12840,22 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <f>June_Balance[[#This Row],[Closing Balance]]</f>
         <v>1680</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],July_Balance[[#This Row],[Bank]],Operations[Product],July_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>500</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <f>July_Balance[[#This Row],[Opening balance]]+July_Balance[[#This Row],[Operations]]</f>
         <v>2180</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G7)</f>
         <v>-250</v>
       </c>
@@ -12857,22 +12867,22 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f>June_Balance[[#This Row],[Closing Balance]]</f>
         <v>300</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f>SUMIFS(Operations[Amount], Operations[Bank],July_Balance[[#This Row],[Bank]],Operations[Product],July_Balance[[#This Row],[Product]],Operations[Month],$B$12)</f>
         <v>100</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f>July_Balance[[#This Row],[Opening balance]]+July_Balance[[#This Row],[Operations]]</f>
         <v>400</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G8)</f>
         <v>-150</v>
       </c>
@@ -12893,28 +12903,28 @@
         <f>SUBTOTAL(109,July_Balance[Closing Balance])</f>
         <v>18973</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G9)</f>
         <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G11)</f>
         <v>0</v>
       </c>
@@ -12926,19 +12936,19 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G12)</f>
         <v>-765</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G13)</f>
         <v>4500</v>
       </c>
@@ -12952,10 +12962,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A15)</f>
         <v>6565</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G14)</f>
         <v>0</v>
       </c>
@@ -12968,10 +12978,10 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A16)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G15)</f>
         <v>115</v>
       </c>
@@ -12984,46 +12994,46 @@
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Type],A17)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <f>SUMIFS(Operations[Amount],Operations[Month],$B$12,Operations[Category],G20)</f>
         <v>1950</v>
       </c>
